--- a/best_algo_table.xlsx
+++ b/best_algo_table.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoore\Documents\workspace\nlp_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BB9229-FAD8-4258-B8E7-30A3FD6EB23D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20156A74-4EEA-49DB-AA19-9FC36260F9C6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{ABA82CFE-7339-414D-BF28-665079B83703}"/>
+    <workbookView xWindow="9135" yWindow="2955" windowWidth="18000" windowHeight="9360" activeTab="2" xr2:uid="{ABA82CFE-7339-414D-BF28-665079B83703}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="7">
   <si>
     <t>Learning Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -634,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB19749C-56D1-4B2D-950D-59C20A65DECD}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -837,4 +838,211 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811B668C-D664-4DB2-8DC7-26B3CD9727E0}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>